--- a/biology/Botanique/Épilobe_à_grandes_fleurs/Épilobe_à_grandes_fleurs.xlsx
+++ b/biology/Botanique/Épilobe_à_grandes_fleurs/Épilobe_à_grandes_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_%C3%A0_grandes_fleurs</t>
+          <t>Épilobe_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epilobium hirsutum
 L'épilobe à grandes fleurs (Epilobium hirsutum) encore appelée épilobe hirsute est une espèce de plantes herbacées vivaces du genre Epilobium, famille des Onagraceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_%C3%A0_grandes_fleurs</t>
+          <t>Épilobe_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande plante formant souvent des colonies, aux feuilles sessiles, en partie engainantes, dentées, aux fleurs pourpres sur de longs pédoncules à l'aisselle des feuilles et à 4 pétales très échancrés, en grappes feuillues. Elle est appelée aussi Epilobe hérissé en raison des poils hérissés qui parcourent sa tige. Les poils des aigrettes de ses graines furent un temps exploités pour tenter de remplacer la culture du coton mais sans succès.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_%C3%A0_grandes_fleurs</t>
+          <t>Épilobe_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : racème simple
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_%C3%A0_grandes_fleurs</t>
+          <t>Épilobe_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : sols humides (marais, fossés, berges des rivières et des ruisseaux, peupleraies), mégaphorbiaies planitiaires-collinéennes, eutrophiles, médioeuropéennes.
-Aire de répartition : domaine européen[1].
+Aire de répartition : domaine européen.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_%C3%A0_grandes_fleurs</t>
+          <t>Épilobe_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial et français[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial et français.
 </t>
         </is>
       </c>
